--- a/DataStok.xlsx
+++ b/DataStok.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Tanggal Keluar</t>
+  </si>
   <si>
     <t>Lokasi</t>
   </si>
@@ -22,16 +28,16 @@
     <t>Kode</t>
   </si>
   <si>
-    <t>Nama</t>
+    <t>Nama Barang</t>
   </si>
   <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Keluar</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Barang Keluar</t>
+  </si>
+  <si>
+    <t>Total Barang</t>
   </si>
   <si>
     <t>ID</t>
@@ -40,7 +46,7 @@
     <t>Tangerang</t>
   </si>
   <si>
-    <t/>
+    <t>12345</t>
   </si>
   <si>
     <t>sukasuka</t>
@@ -81,8 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,13 +387,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45242.950240115744</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -392,22 +407,28 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>350000</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45242.95028357639</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -415,22 +436,28 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>350000</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45242.950316724535</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -438,22 +465,28 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>350000</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45242.95065928241</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -461,22 +494,28 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
         <v>10000</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>340000</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45242.950700381945</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -484,22 +523,28 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
         <v>10000</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>330000</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>45243.25965025463</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -507,13 +552,48 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
         <v>10000</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>320000</v>
       </c>
-      <c r="G7">
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45243.848213032405</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>10000</v>
+      </c>
+      <c r="H8">
+        <v>310000</v>
+      </c>
+      <c r="I8">
         <v>2</v>
       </c>
     </row>

--- a/DataStok.xlsx
+++ b/DataStok.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No</t>
   </si>
@@ -43,6 +43,9 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Student Examp Score</t>
+  </si>
+  <si>
     <t>Tangerang</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>dus</t>
+  </si>
+  <si>
+    <t>Kabel RJ45</t>
   </si>
 </sst>
 </file>
@@ -364,6 +370,16 @@
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="true" max="1" min="1" width="21"/>
+    <col customWidth="true" max="3" min="2" width="16"/>
+    <col customWidth="true" max="4" min="4" width="11"/>
+    <col customWidth="true" max="5" min="5" width="13"/>
+    <col customWidth="true" max="6" min="6" width="12"/>
+    <col customWidth="true" max="7" min="7" width="15"/>
+    <col customWidth="true" max="8" min="8" width="14"/>
+    <col customWidth="true" max="9" min="9" width="8"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -395,14 +411,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>45242.950240115744</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="C2" s="1">
+        <v>45242.9502401157</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -413,25 +429,28 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>350000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45242.95028357639</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45242.9502835764</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -442,25 +461,28 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>350000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>45242.950316724535</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="C4" s="1">
+        <v>45242.9503167245</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -471,25 +493,28 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>350000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>45242.95065928241</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+      <c r="C5" s="1">
+        <v>45242.9506592824</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -500,25 +525,28 @@
       <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5">
         <v>10000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>340000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>45242.950700381945</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
+      <c r="C6" s="1">
+        <v>45242.9507003819</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -529,25 +557,28 @@
       <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
         <v>10000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>330000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>45243.25965025463</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
+      <c r="C7" s="1">
+        <v>45243.2596502546</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -558,25 +589,28 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
         <v>10000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>320000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>45243.848213032405</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
+      <c r="C8" s="1">
+        <v>45243.8482130324</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -587,14 +621,49 @@
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
         <v>10000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>310000</v>
       </c>
-      <c r="I8">
-        <v>2</v>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>45243.8699079051</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DataStok.xlsx
+++ b/DataStok.xlsx
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
+    <t>Data Stok - Rekapitulasi Barang Keluar</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -41,9 +44,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Student Examp Score</t>
   </si>
   <si>
     <t>Tangerang</t>
@@ -65,10 +65,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+      <color/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -93,8 +100,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
       <alignment/>
     </xf>
@@ -370,302 +380,284 @@
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="true" max="1" min="1" width="21"/>
-    <col customWidth="true" max="3" min="2" width="16"/>
-    <col customWidth="true" max="4" min="4" width="11"/>
-    <col customWidth="true" max="5" min="5" width="13"/>
-    <col customWidth="true" max="6" min="6" width="12"/>
-    <col customWidth="true" max="7" min="7" width="15"/>
-    <col customWidth="true" max="8" min="8" width="14"/>
-    <col customWidth="true" max="9" min="9" width="8"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="3">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>45242.9502401157</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B3" s="2">
+        <v>45242.950240115744</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="H3">
         <v>350000</v>
       </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45242.9502835764</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45242.95028357639</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="H4">
         <v>350000</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
+      <c r="I4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>45242.9503167245</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B5" s="2">
+        <v>45242.950316724535</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="H5">
         <v>350000</v>
       </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>45242.9506592824</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B6" s="2">
+        <v>45242.95065928241</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
         <v>10000</v>
       </c>
-      <c r="I5">
+      <c r="H6">
         <v>340000</v>
       </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>45242.9507003819</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B7" s="2">
+        <v>45242.950700381945</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6">
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
         <v>10000</v>
       </c>
-      <c r="I6">
+      <c r="H7">
         <v>330000</v>
       </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>45243.2596502546</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B8" s="2">
+        <v>45243.25965025463</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7">
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
         <v>10000</v>
       </c>
-      <c r="I7">
+      <c r="H8">
         <v>320000</v>
       </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>45243.8482130324</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B9" s="2">
+        <v>45243.848213032405</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9">
         <v>10000</v>
       </c>
-      <c r="I8">
+      <c r="H9">
         <v>310000</v>
       </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>45243.8699079051</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B10" s="2">
+        <v>45243.86990790509</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
         <v>20</v>
       </c>
-      <c r="I9">
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="J9">
+      <c r="I10">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
 </worksheet>
 </file>
--- a/DataStok.xlsx
+++ b/DataStok.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Data Stok - Rekapitulasi Barang Keluar</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>PT. Anugrah Hadi Electric</t>
+  </si>
+  <si>
+    <t>Data Stok - Rekapitulasi Barang Masuk Tahun 2023</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Tanggal Keluar</t>
-  </si>
-  <si>
-    <t>Lokasi</t>
-  </si>
-  <si>
-    <t>Kode</t>
+    <t>Tanggal Masuk Barang</t>
+  </si>
+  <si>
+    <t>Lokasi Barang</t>
+  </si>
+  <si>
+    <t>Kode Barang</t>
   </si>
   <si>
     <t>Nama Barang</t>
@@ -37,7 +40,7 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>Barang Keluar</t>
+    <t>Barang Masuk</t>
   </si>
   <si>
     <t>Total Barang</t>
@@ -46,6 +49,9 @@
     <t>ID</t>
   </si>
   <si>
+    <t>11/12/2023 12:00:29 AM</t>
+  </si>
+  <si>
     <t>Tangerang</t>
   </si>
   <si>
@@ -55,10 +61,190 @@
     <t>sukasuka</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>11/12/2023 12:18:25 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 12:22:12 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 12:22:39 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 12:24:44 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 12:25:35 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 12:28:08 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 12:29:30 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 12:31:40 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 12:34:37 AM</t>
+  </si>
+  <si>
     <t>dus</t>
   </si>
   <si>
+    <t>11/12/2023 12:38:31 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 12:45:13 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 12:45:53 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 12:55:08 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 12:57:06 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:06:47 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:11:24 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:13:02 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:14:54 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:15:02 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:15:53 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:18:02 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:18:05 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:18:44 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:18:46 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:18:47 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:19:38 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:21:57 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:21:58 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:22:00 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:23:09 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:27:14 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:33:30 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:33:33 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:33:42 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:34:41 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:34:43 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:34:47 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:37:41 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:37:44 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:40:23 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:42:22 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:44:05 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:44:50 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:47:18 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:50:26 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:50:31 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:54:09 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:54:32 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:55:05 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:55:14 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:55:42 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:55:49 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:55:58 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:56:19 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 01:59:34 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 02:01:46 AM</t>
+  </si>
+  <si>
+    <t>11/12/2023 02:01:56 AM</t>
+  </si>
+  <si>
+    <t>11/13/2023 08:52:20 PM</t>
+  </si>
+  <si>
     <t>Kabel RJ45</t>
+  </si>
+  <si>
+    <t>Alamat : Jl. Sriwijaya III No.9, Perumnas 3, Kec. Karawaci, Kabupaten Tangerang, Banten 15810</t>
   </si>
 </sst>
 </file>
@@ -88,12 +274,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -105,7 +306,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="false">
       <alignment/>
     </xf>
   </cellXfs>
@@ -395,269 +596,1767 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3">
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>45242.950240115744</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2">
+        <v>111</v>
+      </c>
+      <c r="H5" s="2">
+        <v>10111</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-10111</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>30000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H10" s="2">
+        <v>40000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>50000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>30000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>40000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>50000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>60000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>70000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>80000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>90000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H22" s="2">
+        <v>120000</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H23" s="2">
+        <v>130000</v>
+      </c>
+      <c r="I23" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H24" s="2">
+        <v>140000</v>
+      </c>
+      <c r="I24" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H25" s="2">
+        <v>150000</v>
+      </c>
+      <c r="I25" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H26" s="2">
+        <v>160000</v>
+      </c>
+      <c r="I26" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H27" s="2">
+        <v>170000</v>
+      </c>
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H28" s="2">
+        <v>180000</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H29" s="2">
+        <v>190000</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H30" s="2">
+        <v>200000</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H34" s="2">
+        <v>240000</v>
+      </c>
+      <c r="I34" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H35" s="2">
+        <v>250000</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H36" s="2">
+        <v>250000</v>
+      </c>
+      <c r="I36" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H37" s="2">
+        <v>250000</v>
+      </c>
+      <c r="I37" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H38" s="2">
+        <v>250000</v>
+      </c>
+      <c r="I38" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H39" s="2">
+        <v>250000</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H40" s="2">
+        <v>250000</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H41" s="2">
+        <v>250000</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G45" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G47" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H47" s="2">
+        <v>310000</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G48" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H48" s="2">
+        <v>320000</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H49" s="2">
+        <v>330000</v>
+      </c>
+      <c r="I49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H50" s="2">
+        <v>340000</v>
+      </c>
+      <c r="I50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>100</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="2">
+        <v>100</v>
+      </c>
+      <c r="H53" s="2">
+        <v>100</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>55</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="2">
+        <v>100</v>
+      </c>
+      <c r="H54" s="2">
+        <v>100</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="2">
+        <v>100</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>100</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>100</v>
+      </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>100</v>
+      </c>
+      <c r="I58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2">
+        <v>100</v>
+      </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>100</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>62</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H61" s="2">
         <v>350000</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45242.95028357639</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>350000</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45242.950316724535</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>350000</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45242.95065928241</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
-        <v>10000</v>
-      </c>
-      <c r="H6">
-        <v>340000</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45242.950700381945</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7">
-        <v>10000</v>
-      </c>
-      <c r="H7">
-        <v>330000</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45243.25965025463</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>10000</v>
-      </c>
-      <c r="H8">
-        <v>320000</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>45243.848213032405</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>10000</v>
-      </c>
-      <c r="H9">
-        <v>310000</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45243.86990790509</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10">
+      <c r="I61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>63</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="2">
+        <v>15</v>
+      </c>
+      <c r="H62" s="2">
+        <v>28</v>
+      </c>
+      <c r="I62" s="2">
         <v>16</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
 </worksheet>
 </file>